--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1141377.328589782</v>
+        <v>1180935.175108152</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11943472.88418848</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>1195188.384728777</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7196830.47387935</v>
+        <v>7642869.757487707</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>29.75261278574032</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>24.30646610263425</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -829,7 +831,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -865,22 +867,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>38.7940173426897</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>128.889762716035</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>149.6252607230632</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>311.6555398009756</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1059,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>128.3986024769482</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>68.63183900308934</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>345.1345376530128</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>238.0522523942376</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1291,25 +1293,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>150.2427669004142</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>133.7682651318491</v>
+        <v>102.391657041176</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1530,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1610,10 +1612,10 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>175.0624134762496</v>
       </c>
       <c r="V14" t="n">
-        <v>172.9655610612152</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>133.9073134702963</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2005,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2242,19 +2244,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>121.2482518332239</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>122.9177036806385</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2476,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>18.79193550549828</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>161.6737988100371</v>
+        <v>164.7047943182449</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2955,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>82.56012880945237</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>4.378995526348093</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.04121948802891</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474295</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3661,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399308</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>166.8046456272815</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>418.4197285142342</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>126.9422904945901</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>246.46190824065</v>
       </c>
       <c r="E44" t="n">
-        <v>89.20282790012756</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4147,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>3.60264190078542</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>956.0775494418461</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C2" t="n">
-        <v>933.2172234955503</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D2" t="n">
-        <v>913.9650067209546</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E2" t="n">
-        <v>883.9118624929341</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F2" t="n">
-        <v>458.7876806823343</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G2" t="n">
-        <v>54.44861827178296</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>417.0520770886785</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>417.0520770886785</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1090.853728201993</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1764.655379315307</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1764.655379315307</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>2148.789099203062</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2618.063619462288</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2397.138048506922</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U2" t="n">
-        <v>2138.783139103334</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="V2" t="n">
-        <v>1781.293724229584</v>
+        <v>2095.99197237326</v>
       </c>
       <c r="W2" t="n">
-        <v>1384.902374529931</v>
+        <v>1699.600622673607</v>
       </c>
       <c r="X2" t="n">
-        <v>973.1823756976778</v>
+        <v>1287.880623841354</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.8855096929722</v>
+        <v>882.5433537962446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>924.0776770816254</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L3" t="n">
-        <v>1597.87932819494</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M3" t="n">
-        <v>1781.11693876759</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N3" t="n">
-        <v>1781.11693876759</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O3" t="n">
-        <v>1781.11693876759</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>1781.11693876759</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>1781.11693876759</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>971.3727710902519</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C4" t="n">
-        <v>799.4002079691679</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
-        <v>636.0834350959386</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E4" t="n">
-        <v>469.8752292487922</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F4" t="n">
-        <v>298.0134550233526</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2148.637156268358</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1905.297808494257</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1905.297808494257</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1905.297808494257</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="W4" t="n">
-        <v>1630.44540466677</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="X4" t="n">
-        <v>1387.881508112576</v>
+        <v>1354.022115883742</v>
       </c>
       <c r="Y4" t="n">
-        <v>1161.538739802318</v>
+        <v>1127.679347573484</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2053.910127632337</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C5" t="n">
-        <v>1627.009397645637</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D5" t="n">
-        <v>1203.716776830638</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.780241018899</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>756.6560592082994</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>728.2502693850971</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.853571611725</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2618.063619462288</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>2618.063619462288</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>2618.063619462288</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>2206.343620630036</v>
+        <v>1197.346929352786</v>
       </c>
       <c r="Y5" t="n">
-        <v>2205.04675462533</v>
+        <v>882.5433537962444</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480.866774040094</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>1363.360870557599</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>1259.520912072884</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.818978345821</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>1061.173148028725</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>967.1193762463289</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>913.7432830086385</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>921.1899259705503</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>921.1899259705503</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>1511.67485253889</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>2185.476503652204</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>2185.476503652204</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="N6" t="n">
-        <v>2185.476503652204</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="O6" t="n">
-        <v>2185.476503652204</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P6" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>2722.430913589148</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2641.106666150403</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2499.226730448081</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>2314.458534367718</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>2109.485395506984</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1912.964018340201</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1749.486672106864</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1609.793783460156</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.425655731859</v>
+        <v>825.1411618183695</v>
       </c>
       <c r="C7" t="n">
-        <v>364.453092610775</v>
+        <v>653.1685986972855</v>
       </c>
       <c r="D7" t="n">
-        <v>364.453092610775</v>
+        <v>489.8518258240562</v>
       </c>
       <c r="E7" t="n">
-        <v>198.2448867636286</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>198.2448867636286</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>198.2448867636286</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2064.726598204046</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1821.387250429946</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1752.062160527836</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1470.350693135865</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W7" t="n">
-        <v>1195.498289308377</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="X7" t="n">
-        <v>952.9343927541827</v>
+        <v>1241.649898840693</v>
       </c>
       <c r="Y7" t="n">
-        <v>726.5916244439247</v>
+        <v>1015.307130530435</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1273.721360183322</v>
+        <v>2525.607981663617</v>
       </c>
       <c r="C8" t="n">
-        <v>925.1006150792682</v>
+        <v>2098.707251676917</v>
       </c>
       <c r="D8" t="n">
-        <v>905.8483983046725</v>
+        <v>1675.414630861917</v>
       </c>
       <c r="E8" t="n">
-        <v>479.8714584525301</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F8" t="n">
-        <v>54.74727664193027</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>605.152992630652</v>
       </c>
       <c r="L8" t="n">
-        <v>1402.051920498411</v>
+        <v>1534.778040249929</v>
       </c>
       <c r="M8" t="n">
-        <v>1592.543782971651</v>
+        <v>2539.064141668987</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.543782971651</v>
+        <v>3515.315200155688</v>
       </c>
       <c r="O8" t="n">
-        <v>2266.345434084965</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P8" t="n">
-        <v>2266.345434084965</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T8" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U8" t="n">
-        <v>2464.07600418556</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.58658931181</v>
+        <v>4002.97043543275</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.58658931181</v>
+        <v>3762.51361483251</v>
       </c>
       <c r="X8" t="n">
-        <v>1694.866590479557</v>
+        <v>3350.793616000257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1289.529320434448</v>
+        <v>2945.456345955147</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K9" t="n">
-        <v>644.9335448401225</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L9" t="n">
-        <v>644.9335448401225</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M9" t="n">
-        <v>1318.735195953437</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.1066609890681</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C10" t="n">
-        <v>370.1066609890681</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1066609890681</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E10" t="n">
-        <v>370.1066609890681</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F10" t="n">
-        <v>198.2448867636286</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G10" t="n">
-        <v>198.2448867636286</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2187.823032372085</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S10" t="n">
-        <v>2017.687984891219</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="T10" t="n">
-        <v>1865.92761428474</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="U10" t="n">
-        <v>1585.743165785045</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="V10" t="n">
-        <v>1304.031698393074</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W10" t="n">
-        <v>1029.179294565587</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X10" t="n">
-        <v>786.6153980113918</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y10" t="n">
-        <v>560.2726297011338</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1755.743090736225</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C11" t="n">
-        <v>1328.842360749525</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D11" t="n">
-        <v>905.5497399345252</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>583.4696253673028</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L11" t="n">
-        <v>1257.271276480617</v>
+        <v>1016.834244625407</v>
       </c>
       <c r="M11" t="n">
-        <v>1931.072927593931</v>
+        <v>2021.120346044465</v>
       </c>
       <c r="N11" t="n">
-        <v>2604.874578707245</v>
+        <v>2997.371404531166</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>3842.516054681978</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W11" t="n">
-        <v>2587.311453860008</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="X11" t="n">
-        <v>2175.591455027755</v>
+        <v>3315.896744743728</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.591455027755</v>
+        <v>2910.559474698618</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="K12" t="n">
-        <v>644.9335448401225</v>
+        <v>358.9066862857211</v>
       </c>
       <c r="L12" t="n">
-        <v>1316.97146190481</v>
+        <v>1195.705494368627</v>
       </c>
       <c r="M12" t="n">
-        <v>1316.97146190481</v>
+        <v>1195.705494368627</v>
       </c>
       <c r="N12" t="n">
-        <v>1316.97146190481</v>
+        <v>1195.705494368627</v>
       </c>
       <c r="O12" t="n">
-        <v>1316.97146190481</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="P12" t="n">
-        <v>1316.97146190481</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q12" t="n">
-        <v>1781.11693876759</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>278.5276838214469</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C13" t="n">
-        <v>154.217186531507</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D13" t="n">
-        <v>154.217186531507</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E13" t="n">
-        <v>154.217186531507</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F13" t="n">
-        <v>154.217186531507</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G13" t="n">
-        <v>154.217186531507</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T13" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U13" t="n">
-        <v>1494.164188617424</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V13" t="n">
-        <v>1212.452721225452</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W13" t="n">
-        <v>937.6003173979655</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X13" t="n">
-        <v>695.0364208437705</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y13" t="n">
-        <v>468.6936525335126</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1310.812592479634</v>
+        <v>2192.842731881123</v>
       </c>
       <c r="C14" t="n">
-        <v>883.9118624929341</v>
+        <v>1765.942001894423</v>
       </c>
       <c r="D14" t="n">
-        <v>883.9118624929341</v>
+        <v>1342.649381079424</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>916.6724412272812</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>491.5482594166814</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K14" t="n">
-        <v>54.44861827178296</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L14" t="n">
-        <v>583.4696253673028</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M14" t="n">
-        <v>1257.271276480617</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N14" t="n">
-        <v>1931.072927593931</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O14" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P14" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>4183.629129623419</v>
       </c>
       <c r="V14" t="n">
-        <v>2547.718225648527</v>
+        <v>3826.139714749669</v>
       </c>
       <c r="W14" t="n">
-        <v>2547.718225648527</v>
+        <v>3429.748365050016</v>
       </c>
       <c r="X14" t="n">
-        <v>2135.998226816274</v>
+        <v>3018.028366217763</v>
       </c>
       <c r="Y14" t="n">
-        <v>1730.660956771164</v>
+        <v>2612.691096172653</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J15" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K15" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L15" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M15" t="n">
-        <v>999.9477586646882</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N15" t="n">
-        <v>1398.990771989513</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O15" t="n">
-        <v>1398.990771989513</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P15" t="n">
-        <v>1398.990771989513</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937.6003173979655</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C16" t="n">
-        <v>937.6003173979655</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X16" t="n">
-        <v>937.6003173979655</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.6003173979655</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
         <v>5115.135670291427</v>
@@ -5543,22 +5545,22 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="M18" t="n">
-        <v>374.0002026854196</v>
+        <v>4143.246847793825</v>
       </c>
       <c r="N18" t="n">
-        <v>1364.825557038856</v>
+        <v>4225.654392279956</v>
       </c>
       <c r="O18" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P18" t="n">
-        <v>1364.825557038856</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q18" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.6620294727279</v>
+        <v>3278.556980224822</v>
       </c>
       <c r="C19" t="n">
-        <v>603.6894663516439</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="D19" t="n">
-        <v>440.3726934784146</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>3106.584417103738</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I19" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L19" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>5017.717281294595</v>
       </c>
       <c r="T19" t="n">
-        <v>2271.4829827684</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U19" t="n">
-        <v>1991.298534268705</v>
+        <v>4494.193485020799</v>
       </c>
       <c r="V19" t="n">
-        <v>1709.587066876733</v>
+        <v>4212.482017628828</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.734663049246</v>
+        <v>3937.629613801341</v>
       </c>
       <c r="X19" t="n">
-        <v>1192.170766495052</v>
+        <v>3695.065717247146</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.8279981847936</v>
+        <v>3468.722948936888</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>3696.34920575453</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
         <v>4541.493855905342</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C21" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D21" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E21" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F21" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G21" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M21" t="n">
-        <v>692.7876399741681</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N21" t="n">
-        <v>692.7876399741681</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R21" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S21" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T21" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U21" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V21" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W21" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X21" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y21" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>374.0438447866366</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H22" t="n">
         <v>202.0712816655526</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2113.204145856409</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1869.864798082309</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1589.680349582613</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1307.968882190642</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>1033.116478363155</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>790.5525818089602</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>564.2098134987023</v>
       </c>
     </row>
     <row r="23">
@@ -6005,10 +6007,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C24" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D24" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E24" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F24" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G24" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818557</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R24" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S24" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T24" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U24" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V24" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W24" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X24" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y24" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="C25" t="n">
-        <v>985.454412532011</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>3864.912955317308</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>464.9061722227241</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C27" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D27" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E27" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F27" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G27" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>4362.434577686964</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R27" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S27" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T27" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U27" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V27" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W27" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X27" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y27" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C28" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D28" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E28" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F28" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G28" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H28" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T28" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U28" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V28" t="n">
-        <v>2119.408873334071</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="W28" t="n">
-        <v>1844.556469506584</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="X28" t="n">
-        <v>1601.992572952389</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y28" t="n">
-        <v>1375.649804642131</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6479,10 +6481,10 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>517.8401132784822</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1176.912746855001</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>934.3488503008059</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>708.006081990548</v>
       </c>
     </row>
     <row r="32">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2277.623599921958</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2107.488552441093</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1864.149204666993</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1583.964756167297</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1302.253288775326</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1027.400884947839</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>784.8369883936441</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.4942200833862</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,25 +6937,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
         <v>5115.135670291427</v>
@@ -7011,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3270.011978872612</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3098.039415751528</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4092.726745831969</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>3817.874342004482</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>3575.310445450287</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3348.967677140029</v>
       </c>
     </row>
     <row r="38">
@@ -7175,25 +7177,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7254,10 +7256,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M39" t="n">
         <v>821.6753975134684</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>373.4203922683193</v>
+        <v>3205.84032174079</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>3033.867758619706</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.580693338092</v>
+        <v>4945.000622810562</v>
       </c>
       <c r="T40" t="n">
-        <v>1869.241345563992</v>
+        <v>4701.661275036462</v>
       </c>
       <c r="U40" t="n">
-        <v>1589.056897064296</v>
+        <v>4421.476826536767</v>
       </c>
       <c r="V40" t="n">
-        <v>1307.345429672325</v>
+        <v>4139.765359144795</v>
       </c>
       <c r="W40" t="n">
-        <v>1032.493025844838</v>
+        <v>3864.912955317308</v>
       </c>
       <c r="X40" t="n">
-        <v>789.9291292906429</v>
+        <v>3622.349058763114</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.5863609803849</v>
+        <v>3396.006290452855</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>627.2772217199924</v>
+        <v>1786.02567807839</v>
       </c>
       <c r="C41" t="n">
-        <v>458.7876806823343</v>
+        <v>1359.124948091691</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7876806823343</v>
+        <v>935.8323272766909</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>509.8553874245484</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L41" t="n">
-        <v>801.1857969764337</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M41" t="n">
-        <v>801.1857969764337</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N41" t="n">
-        <v>801.1857969764337</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T41" t="n">
-        <v>2618.063619462288</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>2618.063619462288</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V41" t="n">
-        <v>2260.574204588538</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W41" t="n">
-        <v>1864.182854888885</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X41" t="n">
-        <v>1452.462856056632</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y41" t="n">
-        <v>1047.125586011523</v>
+        <v>2205.874042369921</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L42" t="n">
-        <v>515.5329466256644</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N42" t="n">
-        <v>1189.334597738979</v>
+        <v>1166.423009956989</v>
       </c>
       <c r="O42" t="n">
-        <v>1189.334597738979</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.5997284915359</v>
+        <v>738.1565757177285</v>
       </c>
       <c r="C43" t="n">
-        <v>389.6271653704518</v>
+        <v>566.1840125966445</v>
       </c>
       <c r="D43" t="n">
-        <v>226.3103924972226</v>
+        <v>402.8672397234152</v>
       </c>
       <c r="E43" t="n">
-        <v>226.3103924972226</v>
+        <v>402.8672397234152</v>
       </c>
       <c r="F43" t="n">
-        <v>54.44861827178296</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>231.0054654979756</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.420681787208</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U43" t="n">
-        <v>1777.236233287513</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.524765895541</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.672362068054</v>
+        <v>1299.11097683711</v>
       </c>
       <c r="X43" t="n">
-        <v>978.1084655138595</v>
+        <v>1056.547080282915</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.7656972036016</v>
+        <v>928.3225444297941</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>567.8451056525681</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C44" t="n">
-        <v>567.8451056525681</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D44" t="n">
-        <v>144.5524848375684</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="E44" t="n">
-        <v>54.44861827178296</v>
+        <v>1214.540819753246</v>
       </c>
       <c r="F44" t="n">
-        <v>54.44861827178296</v>
+        <v>789.4166379426465</v>
       </c>
       <c r="G44" t="n">
-        <v>54.44861827178296</v>
+        <v>385.0775755320952</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K44" t="n">
-        <v>417.0520770886785</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L44" t="n">
-        <v>417.0520770886785</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M44" t="n">
-        <v>417.0520770886785</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N44" t="n">
-        <v>801.1857969764337</v>
+        <v>3712.879712506665</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X44" t="n">
-        <v>973.1823756976778</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y44" t="n">
-        <v>567.8451056525681</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>654.3326880375852</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>536.8267845550899</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>432.986826070375</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>328.2848923433122</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>234.6390620262164</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>140.5852902438204</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J45" t="n">
-        <v>326.146107551374</v>
+        <v>87.20919700613</v>
       </c>
       <c r="K45" t="n">
-        <v>725.1891208761992</v>
+        <v>87.20919700613</v>
       </c>
       <c r="L45" t="n">
-        <v>725.1891208761992</v>
+        <v>87.20919700613</v>
       </c>
       <c r="M45" t="n">
-        <v>725.1891208761992</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="N45" t="n">
-        <v>1398.990771989513</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="O45" t="n">
-        <v>1398.990771989513</v>
+        <v>1143.195734982175</v>
       </c>
       <c r="P45" t="n">
-        <v>1398.990771989513</v>
+        <v>1431.75135072386</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1814.572580147894</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1672.692644445573</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1487.924448365209</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1282.951309504475</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1086.429932337693</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>922.9525861043555</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>783.2596974576479</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>568.1301936884686</v>
+        <v>1170.390319530367</v>
       </c>
       <c r="C46" t="n">
-        <v>396.1576305673846</v>
+        <v>998.4177564092828</v>
       </c>
       <c r="D46" t="n">
-        <v>396.1576305673846</v>
+        <v>835.1009835360535</v>
       </c>
       <c r="E46" t="n">
-        <v>229.9494247202381</v>
+        <v>668.892777688907</v>
       </c>
       <c r="F46" t="n">
-        <v>58.08765049479854</v>
+        <v>497.0310034634675</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>330.7740337576996</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>186.977765265854</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>87.20919700613</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>144.700525230288</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>371.2281264361252</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>725.917447730546</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1117.103242700797</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1494.594753576833</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1850.022882256595</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2140.622094178496</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T46" t="n">
-        <v>1821.387250429946</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="U46" t="n">
-        <v>1541.20280193025</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="V46" t="n">
-        <v>1259.491334538279</v>
+        <v>2104.315356934372</v>
       </c>
       <c r="W46" t="n">
-        <v>984.6389307107922</v>
+        <v>1829.462953106885</v>
       </c>
       <c r="X46" t="n">
-        <v>984.6389307107922</v>
+        <v>1586.89905655269</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.2961624005343</v>
+        <v>1360.556288242432</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>300.3028744740158</v>
       </c>
       <c r="O2" t="n">
-        <v>425.4048178285041</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>703.1228151115166</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
-        <v>208.1852760402571</v>
+        <v>268.7645418748069</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8073,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>452.4414523720698</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>690.6837880500523</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>181.3705437721211</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>564.1490330603278</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>558.94015193069</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M8" t="n">
-        <v>229.8472855996737</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O8" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8532,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N9" t="n">
-        <v>571.2430816467296</v>
+        <v>312.813347144537</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>570.1292544266475</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>100.058509406533</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,13 +8768,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>701.3412655674495</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,7 +8783,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>261.6020476568013</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8790,7 +8792,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>572.6766960644611</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>717.9986877533111</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -8948,7 +8950,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>424.4167790466985</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>783.476023666126</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9179,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>218.8019602116015</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9240,31 +9242,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1022.176719479639</v>
+        <v>104.5829721389265</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,16 +9409,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>991.4483453949176</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9480,22 +9482,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>586.4197136125407</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574439</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>702.6160445827093</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,31 +10661,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10823,10 +10825,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622221</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10904,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>152.7047407943309</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>111.9842925248821</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,19 +11144,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>760.0141297521729</v>
       </c>
       <c r="P42" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>425.2934813069261</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>691.5123106689887</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11375,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>425.4729846664901</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>313.241160135824</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>258.6591710708075</v>
+        <v>290.0357791614805</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.1854451728326</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,10 +23500,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>80.70894683330218</v>
       </c>
       <c r="V14" t="n">
-        <v>180.9489596637978</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.77629167420068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>47.18544517283263</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24366,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>151.4609019843749</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>117.2205539080143</v>
+        <v>114.1895583998065</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>189.5437509797597</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -25084,13 +25086,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>165.7641609568371</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.52700769166967</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25558,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>71.9894918991921</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>255.8270770595513</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>2.453211478259504</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25679,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.13705013256528</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>172.5977863661997</v>
       </c>
       <c r="E44" t="n">
-        <v>332.5143425534935</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.9917581079248</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,22 +26073,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>689014.521642097</v>
+        <v>687054.3946862801</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>689014.521642097</v>
+        <v>687054.3946862801</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>689014.521642097</v>
+        <v>695468.0247378267</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>453039.2637729677</v>
+        <v>604969.5697035642</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453039.2637729675</v>
+        <v>604969.569703564</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674967.1904040326</v>
+        <v>674967.1904040325</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674967.1904040325</v>
+        <v>674967.1904040324</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674967.1904040325</v>
+        <v>674967.1904040326</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453039.2637729677</v>
+        <v>604969.569703564</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453039.2637729676</v>
+        <v>604969.569703564</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.6008066977</v>
+      </c>
+      <c r="C2" t="n">
         <v>349465.6008066979</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.6008066978</v>
-      </c>
       <c r="D2" t="n">
-        <v>349465.6008066978</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>302249.0155714304</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619345</v>
+        <v>302249.0155714303</v>
       </c>
       <c r="G2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824686</v>
       </c>
       <c r="H2" t="n">
         <v>337218.2418824684</v>
@@ -26344,16 +26346,16 @@
         <v>337218.2418824685</v>
       </c>
       <c r="M2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="N2" t="n">
         <v>337218.2418824685</v>
       </c>
-      <c r="N2" t="n">
-        <v>337218.2418824683</v>
-      </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>302249.0155714304</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619346</v>
+        <v>302249.0155714304</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>165841.36523708</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>51711.33053014221</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>135122.0325442417</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="C4" t="n">
-        <v>136841.7607842109</v>
+        <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>136841.7607842109</v>
+        <v>71285.93913188567</v>
       </c>
       <c r="E4" t="n">
-        <v>19722.71048820158</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="F4" t="n">
-        <v>19722.71048820158</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26448,16 +26450,16 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>19722.71048820159</v>
+        <v>26369.81867680313</v>
       </c>
       <c r="P4" t="n">
-        <v>19722.71048820159</v>
+        <v>26369.81867680313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>99906.58972465878</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>66278.98972465879</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-90472.01362775207</v>
+        <v>-61138.459451203</v>
       </c>
       <c r="C6" t="n">
-        <v>137615.2901359318</v>
+        <v>125266.2739635344</v>
       </c>
       <c r="D6" t="n">
-        <v>137615.2901359318</v>
+        <v>12431.70671307348</v>
       </c>
       <c r="E6" t="n">
-        <v>165244.4145871779</v>
+        <v>209600.2071699685</v>
       </c>
       <c r="F6" t="n">
-        <v>165244.4145871779</v>
+        <v>209600.2071699684</v>
       </c>
       <c r="G6" t="n">
-        <v>66084.77182794128</v>
+        <v>178324.5621079852</v>
       </c>
       <c r="H6" t="n">
         <v>230035.8926381272</v>
@@ -26543,25 +26545,25 @@
         <v>230035.8926381273</v>
       </c>
       <c r="J6" t="n">
-        <v>51958.96414934749</v>
+        <v>84502.22270331076</v>
       </c>
       <c r="K6" t="n">
         <v>230035.8926381273</v>
       </c>
       <c r="L6" t="n">
+        <v>94913.86009388558</v>
+      </c>
+      <c r="M6" t="n">
+        <v>230035.8926381272</v>
+      </c>
+      <c r="N6" t="n">
         <v>230035.8926381273</v>
       </c>
-      <c r="M6" t="n">
-        <v>230035.8926381273</v>
-      </c>
-      <c r="N6" t="n">
-        <v>230035.8926381271</v>
-      </c>
       <c r="O6" t="n">
-        <v>165244.414587178</v>
+        <v>209600.2071699685</v>
       </c>
       <c r="P6" t="n">
-        <v>165244.414587178</v>
+        <v>209600.2071699685</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1090.114962576625</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610306</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>533.8871494610308</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>188.6689549962318</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>391.9645576678807</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>329.6080546223787</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>129.6396796633668</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>150.0045900020164</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>266.0246199255515</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>89.62835754368291</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27779,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>36.14752131172676</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.7507650116094</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>77.49718503382002</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>154.375183808419</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>90.66318739594479</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="O2" t="n">
-        <v>388.01385847248</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
-        <v>185.0884955279291</v>
+        <v>245.6677613624789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>415.010189472638</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>653.1084262398209</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>542.3781918554992</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>523.1755511358807</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M8" t="n">
-        <v>192.4160227002419</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O8" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N9" t="n">
-        <v>549.900053433188</v>
+        <v>291.4703189309953</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>534.3646536318382</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>62.48314759630173</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>678.8261788532199</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>238.4301579345791</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>534.3646536318382</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>680.607728397287</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>403.0737508331568</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>760.3041339439038</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35899,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>181.2265984013702</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1000.833691266097</v>
+        <v>83.23994392538482</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,16 +36129,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>954.1687225604716</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>548.1076711799178</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439022</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>666.8514437878999</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906198</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>130.1896540801013</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>73.6722500922592</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>736.8422400299507</v>
       </c>
       <c r="P42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>388.0138584724801</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>654.1213513129646</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>403.0737508331568</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>291.4703189309953</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1180935.175108152</v>
+        <v>1180107.256483705</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7642869.757487707</v>
+        <v>7642869.757487708</v>
       </c>
     </row>
     <row r="11">
@@ -664,7 +664,7 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -679,7 +679,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>24.30646610263425</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>81.40164782413903</v>
       </c>
     </row>
     <row r="3">
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>167.8164790129233</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -876,13 +876,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>128.889762716035</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
@@ -907,16 +907,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>261.0109933932786</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>311.6555398009756</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1062,13 +1062,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>128.3986024769482</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>260.4446813871638</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1147,10 +1147,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>66.32250716336708</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -1186,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>238.0522523942376</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>115.1055716303386</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1372,13 +1372,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>250.0339363206331</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1432,10 +1432,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>102.391657041176</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1615,7 +1615,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>43.4452106292592</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1624,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>175.0624134762496</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399249</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.209635605837841</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>96.44420510686429</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2092,13 +2092,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>121.2482518332239</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>18.79193550549828</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>156.6959506270719</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
@@ -2715,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2727,13 +2727,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>102.1509188080625</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2772,16 +2772,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>164.7047943182449</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>80.85066933232358</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>82.56012880945237</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>77.66082860342345</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.378995526348093</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474295</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>126.2358084348496</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.15366458399308</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3751,16 +3751,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>418.4197285142342</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>172.3890952258953</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.9422904945901</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>119.2951999878624</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>246.46190824065</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4045,7 +4045,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>77.66082860342328</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>866.7353935451185</v>
+        <v>1235.878926328994</v>
       </c>
       <c r="C2" t="n">
-        <v>843.8750675988227</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D2" t="n">
-        <v>824.622850824227</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E2" t="n">
-        <v>802.6863150124886</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F2" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,19 +4333,19 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M2" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="N2" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L2" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="M2" t="n">
-        <v>957.7672188505812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1218.160237973755</v>
-      </c>
       <c r="O2" t="n">
-        <v>1218.160237973755</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
         <v>1768.825772958194</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2120.543958335517</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U2" t="n">
-        <v>2120.543958335517</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V2" t="n">
-        <v>2095.99197237326</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="W2" t="n">
-        <v>1699.600622673607</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="X2" t="n">
-        <v>1287.880623841354</v>
+        <v>1333.910773271169</v>
       </c>
       <c r="Y2" t="n">
-        <v>882.5433537962446</v>
+        <v>1251.68688658012</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K3" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L3" t="n">
-        <v>595.1637600336857</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M3" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N3" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1127.679347573484</v>
+        <v>316.2393564300555</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H4" t="n">
         <v>144.2667933089716</v>
@@ -4512,28 +4512,28 @@
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668685</v>
+        <v>2055.399657499828</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894585</v>
+        <v>1812.060309725728</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394889</v>
+        <v>1531.875861226032</v>
       </c>
       <c r="V4" t="n">
-        <v>1354.022115883742</v>
+        <v>1250.164393834061</v>
       </c>
       <c r="W4" t="n">
-        <v>1354.022115883742</v>
+        <v>975.3119900065741</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.022115883742</v>
+        <v>732.7480934523792</v>
       </c>
       <c r="Y4" t="n">
-        <v>1127.679347573484</v>
+        <v>506.4053251421212</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>462.6949895047144</v>
+        <v>1074.402212592413</v>
       </c>
       <c r="C5" t="n">
-        <v>439.8346635584186</v>
+        <v>1051.541886646117</v>
       </c>
       <c r="D5" t="n">
-        <v>420.5824467838229</v>
+        <v>1032.289669871521</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>1010.353134059783</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H5" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1145.829295018124</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1503.227037680497</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.346929352786</v>
+        <v>1091.507038848244</v>
       </c>
       <c r="Y5" t="n">
-        <v>882.5433537962444</v>
+        <v>1090.210172843539</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="M6" t="n">
-        <v>201.1892506764427</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="N6" t="n">
-        <v>751.8547856608809</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O6" t="n">
-        <v>1302.520320645319</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.1411618183695</v>
+        <v>1027.91077931376</v>
       </c>
       <c r="C7" t="n">
-        <v>653.1685986972855</v>
+        <v>855.9382161926764</v>
       </c>
       <c r="D7" t="n">
-        <v>489.8518258240562</v>
+        <v>692.6214433194471</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>526.4132374723006</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>354.551463246861</v>
       </c>
       <c r="G7" t="n">
         <v>188.2944935410931</v>
@@ -4749,28 +4749,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1961.835816717766</v>
       </c>
       <c r="W7" t="n">
-        <v>1484.213795394888</v>
+        <v>1686.983412890279</v>
       </c>
       <c r="X7" t="n">
-        <v>1241.649898840693</v>
+        <v>1444.419516336084</v>
       </c>
       <c r="Y7" t="n">
-        <v>1015.307130530435</v>
+        <v>1218.076748025826</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2525.607981663617</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C8" t="n">
-        <v>2098.707251676917</v>
+        <v>1463.492242218549</v>
       </c>
       <c r="D8" t="n">
-        <v>1675.414630861917</v>
+        <v>1040.19962140355</v>
       </c>
       <c r="E8" t="n">
-        <v>1249.437691009775</v>
+        <v>614.2226815514072</v>
       </c>
       <c r="F8" t="n">
-        <v>824.3135091991753</v>
+        <v>189.0984997408074</v>
       </c>
       <c r="G8" t="n">
-        <v>419.9744467886239</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H8" t="n">
         <v>122.1060682626588</v>
@@ -4804,25 +4804,25 @@
         <v>87.20919700613</v>
       </c>
       <c r="J8" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K8" t="n">
-        <v>605.152992630652</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L8" t="n">
-        <v>1534.778040249929</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M8" t="n">
-        <v>2539.064141668987</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="N8" t="n">
-        <v>3515.315200155688</v>
+        <v>3099.232112836859</v>
       </c>
       <c r="O8" t="n">
-        <v>4360.4598503065</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="P8" t="n">
-        <v>4360.4598503065</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q8" t="n">
         <v>4360.4598503065</v>
@@ -4834,22 +4834,22 @@
         <v>4360.4598503065</v>
       </c>
       <c r="T8" t="n">
-        <v>4360.4598503065</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U8" t="n">
-        <v>4360.4598503065</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V8" t="n">
-        <v>4002.97043543275</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W8" t="n">
-        <v>3762.51361483251</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X8" t="n">
-        <v>3350.793616000257</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y8" t="n">
-        <v>2945.456345955147</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>87.20919700613</v>
       </c>
       <c r="I9" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J9" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K9" t="n">
-        <v>87.20919700613</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="L9" t="n">
-        <v>87.20919700613</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="M9" t="n">
-        <v>1143.195734982175</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="N9" t="n">
-        <v>1431.75135072386</v>
+        <v>685.1407665363814</v>
       </c>
       <c r="O9" t="n">
-        <v>1431.75135072386</v>
+        <v>715.5536336853625</v>
       </c>
       <c r="P9" t="n">
         <v>1431.75135072386</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1170.390319530367</v>
+        <v>528.4619233494857</v>
       </c>
       <c r="C10" t="n">
-        <v>998.4177564092828</v>
+        <v>356.4893602284017</v>
       </c>
       <c r="D10" t="n">
-        <v>835.1009835360535</v>
+        <v>193.1725873551724</v>
       </c>
       <c r="E10" t="n">
-        <v>668.892777688907</v>
+        <v>87.20919700613</v>
       </c>
       <c r="F10" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G10" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H10" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I10" t="n">
         <v>87.20919700613</v>
@@ -4986,28 +4986,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R10" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="S10" t="n">
-        <v>2220.583611106431</v>
+        <v>2267.622224419258</v>
       </c>
       <c r="T10" t="n">
-        <v>2220.583611106431</v>
+        <v>2024.282876645158</v>
       </c>
       <c r="U10" t="n">
-        <v>2220.583611106431</v>
+        <v>1744.098428145462</v>
       </c>
       <c r="V10" t="n">
-        <v>2104.315356934372</v>
+        <v>1462.386960753491</v>
       </c>
       <c r="W10" t="n">
-        <v>1829.462953106885</v>
+        <v>1187.534556926004</v>
       </c>
       <c r="X10" t="n">
-        <v>1586.89905655269</v>
+        <v>944.9706603718092</v>
       </c>
       <c r="Y10" t="n">
-        <v>1360.556288242432</v>
+        <v>718.6278920615513</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2490.711110407088</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="C11" t="n">
-        <v>2063.810380420388</v>
+        <v>1890.392972205249</v>
       </c>
       <c r="D11" t="n">
-        <v>1640.517759605389</v>
+        <v>1467.100351390249</v>
       </c>
       <c r="E11" t="n">
         <v>1214.540819753246</v>
@@ -5044,19 +5044,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="K11" t="n">
-        <v>87.20919700613</v>
+        <v>802.7175049816291</v>
       </c>
       <c r="L11" t="n">
-        <v>1016.834244625407</v>
+        <v>1732.342552600906</v>
       </c>
       <c r="M11" t="n">
-        <v>2021.120346044465</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="N11" t="n">
-        <v>2997.371404531166</v>
+        <v>2736.628654019964</v>
       </c>
       <c r="O11" t="n">
-        <v>3842.516054681978</v>
+        <v>3581.773304170776</v>
       </c>
       <c r="P11" t="n">
         <v>3904.374370802317</v>
@@ -5068,25 +5068,25 @@
         <v>4360.4598503065</v>
       </c>
       <c r="S11" t="n">
-        <v>4256.09255617964</v>
+        <v>4360.4598503065</v>
       </c>
       <c r="T11" t="n">
-        <v>4035.166985224274</v>
+        <v>4139.534279351133</v>
       </c>
       <c r="U11" t="n">
-        <v>3776.812075820686</v>
+        <v>3881.179369947545</v>
       </c>
       <c r="V11" t="n">
-        <v>3419.322660946936</v>
+        <v>3523.689955073794</v>
       </c>
       <c r="W11" t="n">
-        <v>3315.896744743728</v>
+        <v>3127.298605374142</v>
       </c>
       <c r="X11" t="n">
-        <v>3315.896744743728</v>
+        <v>2715.578606541889</v>
       </c>
       <c r="Y11" t="n">
-        <v>2910.559474698618</v>
+        <v>2310.241336496779</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>87.20919700613</v>
       </c>
       <c r="I12" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J12" t="n">
-        <v>358.9066862857211</v>
+        <v>290.2178325366701</v>
       </c>
       <c r="K12" t="n">
-        <v>358.9066862857211</v>
+        <v>290.2178325366701</v>
       </c>
       <c r="L12" t="n">
-        <v>1195.705494368627</v>
+        <v>290.2178325366701</v>
       </c>
       <c r="M12" t="n">
-        <v>1195.705494368627</v>
+        <v>290.2178325366701</v>
       </c>
       <c r="N12" t="n">
-        <v>1195.705494368627</v>
+        <v>290.2178325366701</v>
       </c>
       <c r="O12" t="n">
-        <v>1431.75135072386</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P12" t="n">
-        <v>1431.75135072386</v>
+        <v>1895.89682758664</v>
       </c>
       <c r="Q12" t="n">
         <v>1895.89682758664</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.390319530367</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C13" t="n">
-        <v>998.4177564092828</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D13" t="n">
-        <v>835.1009835360535</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E13" t="n">
-        <v>668.892777688907</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F13" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G13" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H13" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I13" t="n">
         <v>87.20919700613</v>
@@ -5226,25 +5226,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.622224419258</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.622224419258</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U13" t="n">
-        <v>2267.622224419258</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V13" t="n">
-        <v>2104.315356934372</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W13" t="n">
-        <v>1829.462953106885</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X13" t="n">
-        <v>1586.89905655269</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.556288242432</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2192.842731881123</v>
+        <v>2143.515092952141</v>
       </c>
       <c r="C14" t="n">
-        <v>1765.942001894423</v>
+        <v>1716.614362965441</v>
       </c>
       <c r="D14" t="n">
-        <v>1342.649381079424</v>
+        <v>1293.321742150441</v>
       </c>
       <c r="E14" t="n">
-        <v>916.6724412272812</v>
+        <v>1249.437691009775</v>
       </c>
       <c r="F14" t="n">
-        <v>491.5482594166814</v>
+        <v>824.3135091991753</v>
       </c>
       <c r="G14" t="n">
-        <v>87.20919700613</v>
+        <v>419.9744467886239</v>
       </c>
       <c r="H14" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I14" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J14" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K14" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L14" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M14" t="n">
-        <v>2736.628654019964</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N14" t="n">
-        <v>3712.879712506665</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O14" t="n">
-        <v>4360.4598503065</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P14" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q14" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R14" t="n">
         <v>4360.4598503065</v>
       </c>
       <c r="S14" t="n">
-        <v>4360.4598503065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T14" t="n">
-        <v>4360.4598503065</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U14" t="n">
-        <v>4183.629129623419</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V14" t="n">
-        <v>3826.139714749669</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="W14" t="n">
-        <v>3429.748365050016</v>
+        <v>3380.420726121033</v>
       </c>
       <c r="X14" t="n">
-        <v>3018.028366217763</v>
+        <v>2968.70072728878</v>
       </c>
       <c r="Y14" t="n">
-        <v>2612.691096172653</v>
+        <v>2563.363457243671</v>
       </c>
     </row>
     <row r="15">
@@ -5366,13 +5366,13 @@
         <v>87.20919700613</v>
       </c>
       <c r="M15" t="n">
-        <v>1143.195734982175</v>
+        <v>87.20919700613</v>
       </c>
       <c r="N15" t="n">
-        <v>1143.195734982175</v>
+        <v>1166.423009956989</v>
       </c>
       <c r="O15" t="n">
-        <v>1895.89682758664</v>
+        <v>1179.699110548142</v>
       </c>
       <c r="P15" t="n">
         <v>1895.89682758664</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1170.390319530367</v>
+        <v>358.3268758686206</v>
       </c>
       <c r="C16" t="n">
-        <v>998.4177564092828</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="D16" t="n">
-        <v>835.1009835360535</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="E16" t="n">
-        <v>668.892777688907</v>
+        <v>186.3543127475366</v>
       </c>
       <c r="F16" t="n">
-        <v>497.0310034634675</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G16" t="n">
-        <v>330.7740337576996</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H16" t="n">
-        <v>186.977765265854</v>
+        <v>87.20919700613</v>
       </c>
       <c r="I16" t="n">
         <v>87.20919700613</v>
@@ -5463,25 +5463,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S16" t="n">
-        <v>2267.622224419258</v>
+        <v>2097.487176938393</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.622224419258</v>
+        <v>1854.147829164293</v>
       </c>
       <c r="U16" t="n">
-        <v>2267.622224419258</v>
+        <v>1573.963380664597</v>
       </c>
       <c r="V16" t="n">
-        <v>2104.315356934372</v>
+        <v>1292.251913272626</v>
       </c>
       <c r="W16" t="n">
-        <v>1829.462953106885</v>
+        <v>1017.399509445139</v>
       </c>
       <c r="X16" t="n">
-        <v>1586.89905655269</v>
+        <v>774.8356128909442</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.556288242432</v>
+        <v>548.4928445806862</v>
       </c>
     </row>
     <row r="17">
@@ -5515,34 +5515,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
         <v>4789.842805209199</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>4225.654392279956</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3278.556980224822</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C19" t="n">
-        <v>3106.584417103738</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D19" t="n">
-        <v>3106.584417103738</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E19" t="n">
-        <v>3106.584417103738</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F19" t="n">
-        <v>2934.722642878299</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>5017.717281294595</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>4774.377933520494</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U19" t="n">
-        <v>4494.193485020799</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V19" t="n">
-        <v>4212.482017628828</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W19" t="n">
-        <v>3937.629613801341</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X19" t="n">
-        <v>3695.065717247146</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y19" t="n">
-        <v>3468.722948936888</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>4025.820723818557</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>374.0438447866366</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>202.0712816655526</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2113.204145856409</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.864798082309</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.680349582613</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.968882190642</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1033.116478363155</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>790.5525818089602</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>564.2098134987023</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
         <v>5115.135670291427</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>3306.448039710919</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M24" t="n">
-        <v>4025.820723818557</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N24" t="n">
-        <v>5115.135670291427</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O24" t="n">
-        <v>5115.135670291427</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3864.912955317308</v>
+        <v>842.3270571327721</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281452</v>
+        <v>670.3544940116881</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408222</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561076</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335636</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629868</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138023</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4945.000622810562</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4701.661275036462</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4421.476826536767</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4139.765359144795</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3864.912955317308</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3864.912955317308</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="Y25" t="n">
-        <v>3864.912955317308</v>
+        <v>1032.493025844838</v>
       </c>
     </row>
     <row r="26">
@@ -6226,22 +6226,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
         <v>5115.135670291427</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C27" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D27" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E27" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F27" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>4362.434577686964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N27" t="n">
-        <v>5115.135670291427</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R27" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S27" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T27" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U27" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V27" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W27" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X27" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y27" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402536</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281452</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408222</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561076</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335636</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4897.962009497735</v>
+        <v>2179.532994548187</v>
       </c>
       <c r="T28" t="n">
-        <v>4654.622661723635</v>
+        <v>1936.193646774087</v>
       </c>
       <c r="U28" t="n">
-        <v>4374.43821322394</v>
+        <v>1656.009198274391</v>
       </c>
       <c r="V28" t="n">
-        <v>4208.069734114601</v>
+        <v>1374.29773088242</v>
       </c>
       <c r="W28" t="n">
-        <v>4208.069734114601</v>
+        <v>1099.445327054933</v>
       </c>
       <c r="X28" t="n">
-        <v>4208.069734114601</v>
+        <v>856.8814305007381</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>630.5386621904802</v>
       </c>
     </row>
     <row r="29">
@@ -6466,22 +6466,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>195.4640539534684</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>1125.089101572745</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q29" t="n">
         <v>5115.135670291427</v>
@@ -6548,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>517.8401132784822</v>
+        <v>771.3692302638447</v>
       </c>
       <c r="C31" t="n">
-        <v>345.8675501573982</v>
+        <v>599.3966671427606</v>
       </c>
       <c r="D31" t="n">
-        <v>345.8675501573982</v>
+        <v>599.3966671427606</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8675501573982</v>
+        <v>517.7293243828378</v>
       </c>
       <c r="F31" t="n">
         <v>345.8675501573982</v>
@@ -6648,25 +6648,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W31" t="n">
-        <v>1176.912746855001</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="X31" t="n">
-        <v>934.3488503008059</v>
+        <v>1187.877967286168</v>
       </c>
       <c r="Y31" t="n">
-        <v>708.006081990548</v>
+        <v>961.5351989759104</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6788,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>516.5477476675582</v>
+        <v>496.5168264363576</v>
       </c>
       <c r="C34" t="n">
-        <v>516.5477476675582</v>
+        <v>324.5442633152736</v>
       </c>
       <c r="D34" t="n">
-        <v>516.5477476675582</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E34" t="n">
-        <v>516.5477476675582</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6885,25 +6885,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1992.33777973203</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1712.153331232334</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1430.441863840363</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1155.589460012876</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>913.0255634586812</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>686.6827951484232</v>
       </c>
     </row>
     <row r="35">
@@ -6940,19 +6940,19 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>1125.089101572745</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1125.089101572745</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2129.375202991803</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P35" t="n">
         <v>4659.050190787244</v>
@@ -7022,19 +7022,19 @@
         <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3270.011978872612</v>
+        <v>739.8561742104578</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751528</v>
+        <v>567.8836110893737</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878299</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878299</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497735</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723635</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.43821322394</v>
+        <v>1955.492679006434</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831969</v>
+        <v>1673.781211614463</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004482</v>
+        <v>1398.928807786976</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450287</v>
+        <v>1156.364911232781</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140029</v>
+        <v>930.0221429225235</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
         <v>5115.135670291427</v>
@@ -7250,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>692.7876399741681</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L39" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3205.84032174079</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3033.867758619706</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>4945.000622810562</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4701.661275036462</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4421.476826536767</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4139.765359144795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>3864.912955317308</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3622.349058763114</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3396.006290452855</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1786.02567807839</v>
+        <v>2227.739603137652</v>
       </c>
       <c r="C41" t="n">
-        <v>1359.124948091691</v>
+        <v>1800.838873150952</v>
       </c>
       <c r="D41" t="n">
-        <v>935.8323272766909</v>
+        <v>1377.546252335952</v>
       </c>
       <c r="E41" t="n">
-        <v>509.8553874245484</v>
+        <v>951.56931248381</v>
       </c>
       <c r="F41" t="n">
-        <v>87.20919700613</v>
+        <v>526.4451306732102</v>
       </c>
       <c r="G41" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="H41" t="n">
-        <v>87.20919700613</v>
+        <v>122.1060682626588</v>
       </c>
       <c r="I41" t="n">
         <v>87.20919700613</v>
       </c>
       <c r="J41" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K41" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L41" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M41" t="n">
-        <v>2736.628654019964</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="N41" t="n">
-        <v>3712.879712506665</v>
+        <v>2350.950441493577</v>
       </c>
       <c r="O41" t="n">
-        <v>4360.4598503065</v>
+        <v>3196.095091644389</v>
       </c>
       <c r="P41" t="n">
-        <v>4360.4598503065</v>
+        <v>3904.374370802317</v>
       </c>
       <c r="Q41" t="n">
         <v>4360.4598503065</v>
@@ -7444,19 +7444,19 @@
         <v>4035.166985224274</v>
       </c>
       <c r="U41" t="n">
-        <v>3776.812075820686</v>
+        <v>3861.036586006197</v>
       </c>
       <c r="V41" t="n">
-        <v>3419.322660946936</v>
+        <v>3861.036586006197</v>
       </c>
       <c r="W41" t="n">
-        <v>3022.931311247283</v>
+        <v>3464.645236306544</v>
       </c>
       <c r="X41" t="n">
-        <v>2611.21131241503</v>
+        <v>3052.925237474291</v>
       </c>
       <c r="Y41" t="n">
-        <v>2205.874042369921</v>
+        <v>2647.587967429182</v>
       </c>
     </row>
     <row r="42">
@@ -7499,19 +7499,19 @@
         <v>87.20919700613</v>
       </c>
       <c r="M42" t="n">
-        <v>87.20919700613</v>
+        <v>924.3962394904649</v>
       </c>
       <c r="N42" t="n">
-        <v>1166.423009956989</v>
+        <v>924.3962394904649</v>
       </c>
       <c r="O42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="P42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="Q42" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R42" t="n">
         <v>1895.89682758664</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.1565757177285</v>
+        <v>431.0435343526535</v>
       </c>
       <c r="C43" t="n">
-        <v>566.1840125966445</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="D43" t="n">
-        <v>402.8672397234152</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="E43" t="n">
-        <v>402.8672397234152</v>
+        <v>259.0709712315696</v>
       </c>
       <c r="F43" t="n">
-        <v>231.0054654979756</v>
+        <v>87.20919700613</v>
       </c>
       <c r="G43" t="n">
-        <v>231.0054654979756</v>
+        <v>87.20919700613</v>
       </c>
       <c r="H43" t="n">
         <v>87.20919700613</v>
@@ -7596,25 +7596,25 @@
         <v>2267.622224419258</v>
       </c>
       <c r="S43" t="n">
-        <v>2097.487176938393</v>
+        <v>2170.203835422426</v>
       </c>
       <c r="T43" t="n">
-        <v>1854.147829164293</v>
+        <v>1926.864487648326</v>
       </c>
       <c r="U43" t="n">
-        <v>1573.963380664597</v>
+        <v>1646.68003914863</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.963380664597</v>
+        <v>1364.968571756659</v>
       </c>
       <c r="W43" t="n">
-        <v>1299.11097683711</v>
+        <v>1090.116167929172</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.547080282915</v>
+        <v>847.5522713749772</v>
       </c>
       <c r="Y43" t="n">
-        <v>928.3225444297941</v>
+        <v>621.2095030647192</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1890.392972205249</v>
+        <v>2490.711110407088</v>
       </c>
       <c r="C44" t="n">
-        <v>1463.492242218549</v>
+        <v>2063.810380420388</v>
       </c>
       <c r="D44" t="n">
-        <v>1214.540819753246</v>
+        <v>1640.517759605389</v>
       </c>
       <c r="E44" t="n">
         <v>1214.540819753246</v>
@@ -7648,52 +7648,52 @@
         <v>87.20919700613</v>
       </c>
       <c r="J44" t="n">
-        <v>87.20919700613</v>
+        <v>449.8126558230255</v>
       </c>
       <c r="K44" t="n">
-        <v>802.7175049816291</v>
+        <v>1165.320963798525</v>
       </c>
       <c r="L44" t="n">
-        <v>1732.342552600906</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="M44" t="n">
-        <v>2736.628654019964</v>
+        <v>2094.946011417801</v>
       </c>
       <c r="N44" t="n">
-        <v>3712.879712506665</v>
+        <v>2233.394106611674</v>
       </c>
       <c r="O44" t="n">
-        <v>4360.4598503065</v>
+        <v>3078.538756762487</v>
       </c>
       <c r="P44" t="n">
-        <v>4360.4598503065</v>
+        <v>3786.818035920414</v>
       </c>
       <c r="Q44" t="n">
-        <v>4360.4598503065</v>
+        <v>4242.903515424598</v>
       </c>
       <c r="R44" t="n">
         <v>4360.4598503065</v>
       </c>
       <c r="S44" t="n">
-        <v>4360.4598503065</v>
+        <v>4256.09255617964</v>
       </c>
       <c r="T44" t="n">
-        <v>4139.534279351133</v>
+        <v>4035.166985224274</v>
       </c>
       <c r="U44" t="n">
-        <v>3881.179369947545</v>
+        <v>3776.812075820686</v>
       </c>
       <c r="V44" t="n">
-        <v>3523.689955073794</v>
+        <v>3419.322660946936</v>
       </c>
       <c r="W44" t="n">
-        <v>3127.298605374142</v>
+        <v>3022.931311247283</v>
       </c>
       <c r="X44" t="n">
-        <v>2715.578606541889</v>
+        <v>2611.21131241503</v>
       </c>
       <c r="Y44" t="n">
-        <v>2310.241336496779</v>
+        <v>2611.21131241503</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>87.20919700613</v>
       </c>
       <c r="I45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="J45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="K45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="L45" t="n">
-        <v>87.20919700613</v>
+        <v>94.65583996804183</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.195734982175</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="N45" t="n">
-        <v>1143.195734982175</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="O45" t="n">
-        <v>1143.195734982175</v>
+        <v>633.5343236006593</v>
       </c>
       <c r="P45" t="n">
-        <v>1431.75135072386</v>
+        <v>1349.732040639157</v>
       </c>
       <c r="Q45" t="n">
-        <v>1895.89682758664</v>
+        <v>1813.877517501937</v>
       </c>
       <c r="R45" t="n">
         <v>1895.89682758664</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1170.390319530367</v>
+        <v>481.4233100366588</v>
       </c>
       <c r="C46" t="n">
-        <v>998.4177564092828</v>
+        <v>309.4507469155749</v>
       </c>
       <c r="D46" t="n">
-        <v>835.1009835360535</v>
+        <v>309.4507469155749</v>
       </c>
       <c r="E46" t="n">
-        <v>668.892777688907</v>
+        <v>309.4507469155749</v>
       </c>
       <c r="F46" t="n">
-        <v>497.0310034634675</v>
+        <v>309.4507469155749</v>
       </c>
       <c r="G46" t="n">
-        <v>330.7740337576996</v>
+        <v>309.4507469155749</v>
       </c>
       <c r="H46" t="n">
-        <v>186.977765265854</v>
+        <v>165.6544784237293</v>
       </c>
       <c r="I46" t="n">
         <v>87.20919700613</v>
@@ -7830,28 +7830,28 @@
         <v>2267.622224419258</v>
       </c>
       <c r="R46" t="n">
-        <v>2267.622224419258</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="S46" t="n">
-        <v>2267.622224419258</v>
+        <v>2220.583611106431</v>
       </c>
       <c r="T46" t="n">
-        <v>2267.622224419258</v>
+        <v>1977.244263332331</v>
       </c>
       <c r="U46" t="n">
-        <v>2267.622224419258</v>
+        <v>1697.059814832636</v>
       </c>
       <c r="V46" t="n">
-        <v>2104.315356934372</v>
+        <v>1415.348347440664</v>
       </c>
       <c r="W46" t="n">
-        <v>1829.462953106885</v>
+        <v>1140.495943613177</v>
       </c>
       <c r="X46" t="n">
-        <v>1586.89905655269</v>
+        <v>897.9320470589824</v>
       </c>
       <c r="Y46" t="n">
-        <v>1360.556288242432</v>
+        <v>671.5892787487245</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
@@ -7990,13 +7990,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>300.3028744740158</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>268.7645418748069</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
         <v>591.9924139104035</v>
@@ -8224,22 +8224,22 @@
         <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>452.4414523720698</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
@@ -8303,22 +8303,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3705437721211</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O6" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>558.94015193069</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
         <v>977.3272420480539</v>
@@ -8464,16 +8464,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N8" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>891.0724241548241</v>
+        <v>850.6659674019404</v>
       </c>
       <c r="P8" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>312.813347144537</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8692,7 +8692,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8701,13 +8701,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>100.058509406533</v>
+        <v>363.4350250744137</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>218.148480564271</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,13 +8783,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>261.6020476568013</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
@@ -8935,22 +8935,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O14" t="n">
-        <v>691.5123106689887</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,16 +9014,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>1111.457990790167</v>
       </c>
       <c r="O15" t="n">
-        <v>783.476023666126</v>
+        <v>36.58209233954867</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,22 +9172,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>104.5829721389265</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O18" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9488,19 +9488,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>35.03264989479647</v>
@@ -9722,19 +9722,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,13 +9886,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
@@ -9962,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>781.6471621574439</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10114,7 +10114,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
-        <v>758.5002654165255</v>
+        <v>129.8669649843445</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10196,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10357,22 +10357,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>702.6160445827093</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10600,10 +10600,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>611.7910214708227</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10670,10 +10670,10 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>502.225283590884</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N36" t="n">
         <v>21.34302821354166</v>
@@ -10685,7 +10685,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,22 +10831,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O38" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L39" t="n">
-        <v>152.7047407943309</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
@@ -11068,19 +11068,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>296.021596309306</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>691.5123106689887</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>35.03264989479647</v>
@@ -11147,13 +11147,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>868.740257769232</v>
       </c>
       <c r="N42" t="n">
-        <v>1111.457990790167</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>760.0141297521729</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11162,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,22 +11305,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>177.126183636338</v>
       </c>
       <c r="O44" t="n">
-        <v>691.5123106689887</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11384,7 +11384,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>1089.749849175</v>
+        <v>567.4184811513355</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>313.241160135824</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>171.6832341329879</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>290.0357791614805</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>378.2719598243618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>80.70894683330218</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>71.98949189919269</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>153.4739695386592</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>71.9894918991922</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24147,7 +24147,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.4609019843749</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4.987654517425057</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>66.28277819799403</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1895583998065</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,10 +24846,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>83.6954544563514</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>189.5437509797597</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>84.02277654107354</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>165.7641609568371</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>35.44779670964743</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>71.9894918991921</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.453211478259504</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>83.38226508365656</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25803,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.13705013256528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>296.3546806607523</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>172.5977863661997</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>21.1100539737035</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>604969.5697035642</v>
+        <v>604969.569703564</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>604969.569703564</v>
+        <v>604969.5697035642</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674967.1904040325</v>
+        <v>674967.1904040326</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674967.1904040325</v>
+        <v>674967.1904040326</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674967.1904040325</v>
+        <v>674967.1904040326</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674967.1904040324</v>
+        <v>674967.1904040325</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674967.1904040326</v>
+        <v>674967.1904040325</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>604969.569703564</v>
+        <v>604969.5697035642</v>
       </c>
     </row>
   </sheetData>
@@ -26319,13 +26319,13 @@
         <v>349465.6008066979</v>
       </c>
       <c r="D2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.600806698</v>
       </c>
       <c r="E2" t="n">
-        <v>302249.0155714304</v>
+        <v>302249.0155714303</v>
       </c>
       <c r="F2" t="n">
-        <v>302249.0155714303</v>
+        <v>302249.0155714301</v>
       </c>
       <c r="G2" t="n">
         <v>337218.2418824686</v>
@@ -26334,28 +26334,28 @@
         <v>337218.2418824684</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824686</v>
       </c>
       <c r="J2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="K2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="L2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="M2" t="n">
+        <v>337218.2418824686</v>
+      </c>
+      <c r="N2" t="n">
         <v>337218.2418824684</v>
       </c>
-      <c r="N2" t="n">
-        <v>337218.2418824685</v>
-      </c>
       <c r="O2" t="n">
-        <v>302249.0155714304</v>
+        <v>302249.0155714303</v>
       </c>
       <c r="P2" t="n">
-        <v>302249.0155714304</v>
+        <v>302249.0155714302</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>156753.0758057354</v>
       </c>
       <c r="D4" t="n">
-        <v>71285.93913188567</v>
+        <v>71285.93913188568</v>
       </c>
       <c r="E4" t="n">
         <v>26369.81867680313</v>
@@ -26450,7 +26450,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="M4" t="n">
-        <v>29432.28705591151</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
         <v>29432.2870559115</v>
@@ -26527,43 +26527,43 @@
         <v>125266.2739635344</v>
       </c>
       <c r="D6" t="n">
-        <v>12431.70671307348</v>
+        <v>12431.70671307351</v>
       </c>
       <c r="E6" t="n">
-        <v>209600.2071699685</v>
+        <v>209403.4713981547</v>
       </c>
       <c r="F6" t="n">
-        <v>209600.2071699684</v>
+        <v>209403.4713981546</v>
       </c>
       <c r="G6" t="n">
-        <v>178324.5621079852</v>
+        <v>178273.5314458009</v>
       </c>
       <c r="H6" t="n">
-        <v>230035.8926381272</v>
+        <v>229984.8619759429</v>
       </c>
       <c r="I6" t="n">
-        <v>230035.8926381273</v>
+        <v>229984.8619759431</v>
       </c>
       <c r="J6" t="n">
-        <v>84502.22270331076</v>
+        <v>84451.19204112653</v>
       </c>
       <c r="K6" t="n">
-        <v>230035.8926381273</v>
+        <v>229984.8619759428</v>
       </c>
       <c r="L6" t="n">
-        <v>94913.86009388558</v>
+        <v>94862.82943170129</v>
       </c>
       <c r="M6" t="n">
-        <v>230035.8926381272</v>
+        <v>229984.8619759431</v>
       </c>
       <c r="N6" t="n">
-        <v>230035.8926381273</v>
+        <v>229984.8619759429</v>
       </c>
       <c r="O6" t="n">
-        <v>209600.2071699685</v>
+        <v>209403.4713981547</v>
       </c>
       <c r="P6" t="n">
-        <v>209600.2071699685</v>
+        <v>209403.4713981546</v>
       </c>
     </row>
   </sheetData>
@@ -27384,7 +27384,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>329.6080546223787</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>319.8822495205195</v>
       </c>
     </row>
     <row r="3">
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.6172179931332096</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>150.0045900020164</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
@@ -27627,64 +27627,64 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>159.8619465992152</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>34.5479025439635</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>255.7713603095518</v>
+      </c>
+      <c r="V5" t="n">
+        <v>353.914520725013</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>400</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>103.323621185591</v>
-      </c>
-      <c r="T5" t="n">
-        <v>218.7163152458132</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>392.4274362026566</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>89.62835754368291</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>36.14752131172676</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>18.44967133088761</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>333.9731646230788</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>154.375183808419</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>59.64236734312304</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>163.7887810877128</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>556.2278131155941</v>
+      </c>
+      <c r="P2" t="n">
         <v>263.0232516395698</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,20 +34774,20 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>245.6677613624789</v>
-      </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
         <v>556.2278131155941</v>
@@ -34944,22 +34944,22 @@
         <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>415.010189472638</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>523.1755511358807</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
         <v>939.015199615431</v>
@@ -35184,16 +35184,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N8" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>853.6814647988001</v>
+        <v>813.2750080459164</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>291.4703189309953</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35412,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35421,13 +35421,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>62.48314759630173</v>
+        <v>325.8596632641824</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>197.5373662309377</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>238.4301579345791</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
@@ -35655,22 +35655,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O14" t="n">
-        <v>654.1213513129646</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1090.114962576625</v>
       </c>
       <c r="O15" t="n">
-        <v>760.3041339439038</v>
+        <v>13.41020261732645</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,22 +35892,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83.23994392538482</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O18" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,13 +36606,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>760.3041339439022</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>722.7356646217162</v>
+        <v>94.10236418953517</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37077,22 +37077,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>666.8514437878999</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37320,10 +37320,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37390,10 +37390,10 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>479.7101968766545</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,22 +37551,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O38" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L39" t="n">
-        <v>130.1896540801013</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
@@ -37788,19 +37788,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>258.5903334098742</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>654.1213513129646</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>845.643477256904</v>
       </c>
       <c r="N42" t="n">
-        <v>1090.114962576625</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>736.8422400299507</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,22 +38025,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>139.846560801892</v>
       </c>
       <c r="O44" t="n">
-        <v>654.1213513129646</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.653068662672</v>
+        <v>544.3217006390075</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>291.4703189309953</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
